--- a/flows/GLTR_fund_flow_data.xlsx
+++ b/flows/GLTR_fund_flow_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B3147"/>
+  <dimension ref="A1:B3163"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -31905,6 +31905,166 @@
         <v>0</v>
       </c>
     </row>
+    <row r="3148">
+      <c r="A3148" t="inlineStr">
+        <is>
+          <t>2024-02-23</t>
+        </is>
+      </c>
+      <c r="B3148" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3149">
+      <c r="A3149" t="inlineStr">
+        <is>
+          <t>2024-02-26</t>
+        </is>
+      </c>
+      <c r="B3149" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3150">
+      <c r="A3150" t="inlineStr">
+        <is>
+          <t>2024-02-27</t>
+        </is>
+      </c>
+      <c r="B3150" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3151">
+      <c r="A3151" t="inlineStr">
+        <is>
+          <t>2024-02-28</t>
+        </is>
+      </c>
+      <c r="B3151" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3152">
+      <c r="A3152" t="inlineStr">
+        <is>
+          <t>2024-02-29</t>
+        </is>
+      </c>
+      <c r="B3152" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3153">
+      <c r="A3153" t="inlineStr">
+        <is>
+          <t>2024-03-01</t>
+        </is>
+      </c>
+      <c r="B3153" t="n">
+        <v>-4.3958</v>
+      </c>
+    </row>
+    <row r="3154">
+      <c r="A3154" t="inlineStr">
+        <is>
+          <t>2024-03-04</t>
+        </is>
+      </c>
+      <c r="B3154" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3155">
+      <c r="A3155" t="inlineStr">
+        <is>
+          <t>2024-03-05</t>
+        </is>
+      </c>
+      <c r="B3155" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3156">
+      <c r="A3156" t="inlineStr">
+        <is>
+          <t>2024-03-06</t>
+        </is>
+      </c>
+      <c r="B3156" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3157">
+      <c r="A3157" t="inlineStr">
+        <is>
+          <t>2024-03-07</t>
+        </is>
+      </c>
+      <c r="B3157" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3158">
+      <c r="A3158" t="inlineStr">
+        <is>
+          <t>2024-03-08</t>
+        </is>
+      </c>
+      <c r="B3158" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3159">
+      <c r="A3159" t="inlineStr">
+        <is>
+          <t>2024-03-11</t>
+        </is>
+      </c>
+      <c r="B3159" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3160">
+      <c r="A3160" t="inlineStr">
+        <is>
+          <t>2024-03-12</t>
+        </is>
+      </c>
+      <c r="B3160" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3161">
+      <c r="A3161" t="inlineStr">
+        <is>
+          <t>2024-03-13</t>
+        </is>
+      </c>
+      <c r="B3161" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3162">
+      <c r="A3162" t="inlineStr">
+        <is>
+          <t>2024-03-14</t>
+        </is>
+      </c>
+      <c r="B3162" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3163">
+      <c r="A3163" t="inlineStr">
+        <is>
+          <t>2024-03-15</t>
+        </is>
+      </c>
+      <c r="B3163" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
